--- a/data/Vaccine_profile_assumptions.xlsx
+++ b/data/Vaccine_profile_assumptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaelin.kim\OneDrive - International Vaccine Institute\Documents\GitHub\vaccine_amr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90754375-FCBB-4E9F-BFA2-50A0D0C921AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C78B9BC-4AE5-4320-A9E2-C52DCA757B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="2" xr2:uid="{E3505429-E9FF-3944-B32E-F1BA65C67D7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{E3505429-E9FF-3944-B32E-F1BA65C67D7B}"/>
   </bookViews>
   <sheets>
     <sheet name="SIGs" sheetId="1" state="hidden" r:id="rId1"/>
@@ -4981,8 +4981,8 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5992,8 +5992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5A1ED2-DAB5-49E9-BA24-FB2CCF468840}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="71" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="71" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8321,6 +8321,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FED123832FD0488CFCE1AA10E1DCD4" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="41a705e68a8aeb9b58d52370ca01447e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a45b7c79-9df6-4e54-8c6e-a05b6926a077" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba608db981251bffcca843424efdcbba" ns3:_="">
     <xsd:import namespace="a45b7c79-9df6-4e54-8c6e-a05b6926a077"/>
@@ -8504,7 +8510,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8513,13 +8519,23 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2737EBF5-6B84-4C51-A2EC-BF7D423E712E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a45b7c79-9df6-4e54-8c6e-a05b6926a077"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F71E18D2-388C-40B5-9487-62F8D977B285}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8537,26 +8553,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949C4874-4D5A-4FE9-8546-A8417F100372}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2737EBF5-6B84-4C51-A2EC-BF7D423E712E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a45b7c79-9df6-4e54-8c6e-a05b6926a077"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Vaccine_profile_assumptions.xlsx
+++ b/data/Vaccine_profile_assumptions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaelin.kim\OneDrive - International Vaccine Institute\Documents\GitHub\vaccine_amr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C78B9BC-4AE5-4320-A9E2-C52DCA757B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C594B0C-FD80-46B0-8A88-4655837D0D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{E3505429-E9FF-3944-B32E-F1BA65C67D7B}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SIGs!$A$1:$K$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Vaccine profile _ Feb'!$A$1:$H$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Vaccine profile _ input'!$J$1:$N$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Vaccine profile _ input'!$J$1:$N$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +49,7 @@
     <author>Chaelin Kim</author>
   </authors>
   <commentList>
-    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{F7B00496-CFA3-42E5-895D-8597EB121E33}">
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{F7B00496-CFA3-42E5-895D-8597EB121E33}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="439">
   <si>
     <t>Who</t>
   </si>
@@ -2746,6 +2746,18 @@
   </si>
   <si>
     <t>Streptococcus pneumoniae - Improved</t>
+  </si>
+  <si>
+    <t>A vaccine against Escherichia coli given to 70% of high risk populations, with five years efficacy of 70%</t>
+  </si>
+  <si>
+    <t>all except diarrhoea</t>
+  </si>
+  <si>
+    <t>All except Diarrhoea</t>
+  </si>
+  <si>
+    <t>E. coli - all</t>
   </si>
 </sst>
 </file>
@@ -2910,7 +2922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2999,26 +3011,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3042,10 +3045,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3058,7 +3057,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -3067,6 +3066,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4978,11 +4980,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4804751B-0D68-40D1-A968-20B3F0CBE54D}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4992,12 +4994,11 @@
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="7" max="7" width="32.69921875" customWidth="1"/>
-    <col min="8" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="50" customWidth="1"/>
-    <col min="10" max="10" width="21.5" style="55" customWidth="1"/>
-    <col min="11" max="11" width="18.59765625" style="37" customWidth="1"/>
-    <col min="12" max="12" width="17.796875" style="37" customWidth="1"/>
-    <col min="13" max="13" width="21.296875" style="39" customWidth="1"/>
+    <col min="8" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="50" customWidth="1"/>
+    <col min="11" max="11" width="18.59765625" style="36" customWidth="1"/>
+    <col min="12" max="12" width="20.69921875" style="36" customWidth="1"/>
+    <col min="13" max="13" width="21.296875" style="36" customWidth="1"/>
     <col min="14" max="14" width="18.296875" style="19" customWidth="1"/>
     <col min="15" max="15" width="13.59765625" customWidth="1"/>
     <col min="16" max="16" width="14.09765625" customWidth="1"/>
@@ -5028,10 +5029,10 @@
       <c r="H1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="46" t="s">
         <v>354</v>
       </c>
       <c r="K1" s="34" t="s">
@@ -5040,10 +5041,10 @@
       <c r="L1" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="42" t="s">
         <v>407</v>
       </c>
       <c r="O1" s="33" t="s">
@@ -5051,7 +5052,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="156" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="38" t="s">
         <v>401</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -5078,25 +5079,25 @@
       <c r="I2" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="43" t="s">
         <v>411</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="43" t="s">
         <v>381</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="44" t="s">
         <v>408</v>
       </c>
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:16" ht="156" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="38" t="s">
         <v>400</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -5114,7 +5115,7 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="38" t="s">
         <v>399</v>
       </c>
       <c r="H3" s="19" t="s">
@@ -5123,25 +5124,25 @@
       <c r="I3" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="43" t="s">
         <v>411</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="43" t="s">
         <v>381</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="44" t="s">
         <v>408</v>
       </c>
       <c r="P3" s="19"/>
     </row>
     <row r="4" spans="1:16" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="38" t="s">
         <v>398</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -5168,25 +5169,25 @@
       <c r="I4" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="43" t="s">
         <v>411</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="43" t="s">
         <v>381</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="47" t="s">
+      <c r="N4" s="44" t="s">
         <v>409</v>
       </c>
       <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:16" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="38" t="s">
         <v>396</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -5213,23 +5214,23 @@
       <c r="I5" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="47"/>
+      <c r="N5" s="44"/>
       <c r="P5" s="19"/>
     </row>
     <row r="6" spans="1:16" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="38" t="s">
         <v>395</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -5256,25 +5257,25 @@
       <c r="I6" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="K6" s="46" t="s">
+      <c r="K6" s="43" t="s">
         <v>411</v>
       </c>
-      <c r="L6" s="46" t="s">
+      <c r="L6" s="43" t="s">
         <v>381</v>
       </c>
-      <c r="M6" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="47" t="s">
+      <c r="M6" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="N6" s="44" t="s">
         <v>410</v>
       </c>
       <c r="P6" s="19"/>
     </row>
     <row r="7" spans="1:16" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="38" t="s">
         <v>394</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -5301,161 +5302,163 @@
       <c r="I7" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="K7" s="46" t="s">
+      <c r="K7" s="43" t="s">
         <v>411</v>
       </c>
-      <c r="L7" s="46" t="s">
+      <c r="L7" s="43" t="s">
         <v>381</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="N7" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" spans="1:16" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>438</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>70</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="M8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N8" s="44" t="s">
         <v>410</v>
       </c>
-      <c r="P7" s="19"/>
-    </row>
-    <row r="8" spans="1:16" ht="78" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="P8" s="19"/>
+    </row>
+    <row r="9" spans="1:16" ht="78" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B9" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="D8">
-        <v>70</v>
-      </c>
-      <c r="E8">
-        <v>70</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="52" t="s">
-        <v>356</v>
-      </c>
-      <c r="K8" s="48" t="s">
-        <v>380</v>
-      </c>
-      <c r="L8" s="48" t="s">
-        <v>380</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="47"/>
-      <c r="P8" s="19"/>
-    </row>
-    <row r="9" spans="1:16" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>368</v>
-      </c>
       <c r="D9">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E9">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
       <c r="G9" t="s">
+        <v>272</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="44"/>
+      <c r="P9" s="19"/>
+    </row>
+    <row r="10" spans="1:16" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="D10">
+        <v>93</v>
+      </c>
+      <c r="E10">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H10" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I10" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="52" t="s">
+      <c r="J10" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="K9" s="48" t="s">
+      <c r="K10" s="45" t="s">
         <v>412</v>
       </c>
-      <c r="L9" s="48" t="s">
+      <c r="L10" s="45" t="s">
         <v>412</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="M10" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="47"/>
-      <c r="O9" s="40" t="s">
+      <c r="N10" s="44"/>
+      <c r="O10" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="P9" s="19"/>
-    </row>
-    <row r="10" spans="1:16" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="P10" s="19"/>
+    </row>
+    <row r="11" spans="1:16" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B11" s="19" t="s">
         <v>430</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="D10">
-        <v>70</v>
-      </c>
-      <c r="E10">
-        <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>176</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="J10" s="53" t="s">
-        <v>355</v>
-      </c>
-      <c r="K10" s="46" t="s">
-        <v>393</v>
-      </c>
-      <c r="L10" s="46" t="s">
-        <v>393</v>
-      </c>
-      <c r="M10" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="47"/>
-      <c r="P10" s="19"/>
-    </row>
-    <row r="11" spans="1:16" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>431</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>369</v>
@@ -5467,260 +5470,258 @@
         <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>290</v>
+        <v>102</v>
       </c>
       <c r="I11" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="J11" s="52" t="s">
+      <c r="J11" s="48" t="s">
+        <v>355</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="44"/>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:16" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="D12">
+        <v>70</v>
+      </c>
+      <c r="E12">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="J12" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="K11" s="46" t="s">
+      <c r="K12" s="43" t="s">
         <v>411</v>
       </c>
-      <c r="L11" s="46" t="s">
+      <c r="L12" s="43" t="s">
         <v>381</v>
       </c>
-      <c r="M11" s="36" t="s">
+      <c r="M12" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="47" t="s">
+      <c r="N12" s="44" t="s">
         <v>408</v>
       </c>
-      <c r="P11" s="19"/>
-    </row>
-    <row r="12" spans="1:16" ht="78" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" spans="1:16" ht="78" x14ac:dyDescent="0.3">
+      <c r="A13" s="40" t="s">
         <v>414</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B13" s="39" t="s">
         <v>432</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C13" s="39" t="s">
         <v>370</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D13" s="51">
         <v>50</v>
       </c>
-      <c r="E12" s="56">
-        <v>70</v>
-      </c>
-      <c r="F12" s="56" t="s">
+      <c r="E13" s="51">
+        <v>70</v>
+      </c>
+      <c r="F13" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G13" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="H12" s="43" t="s">
+      <c r="H13" s="40" t="s">
         <v>416</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I13" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="57" t="s">
+      <c r="J13" s="52" t="s">
         <v>356</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="K13" s="39" t="s">
         <v>418</v>
       </c>
-      <c r="L12" s="42" t="s">
+      <c r="L13" s="39" t="s">
         <v>418</v>
       </c>
-      <c r="M12" s="58" t="s">
+      <c r="M13" s="53" t="s">
         <v>361</v>
       </c>
-      <c r="N12" s="42"/>
-      <c r="P12" s="42"/>
-    </row>
-    <row r="13" spans="1:16" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="N13" s="39"/>
+      <c r="P13" s="39"/>
+    </row>
+    <row r="14" spans="1:16" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="40" t="s">
         <v>415</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B14" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C14" s="39" t="s">
         <v>370</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D14" s="51">
         <v>80</v>
       </c>
-      <c r="E13" s="56">
-        <v>70</v>
-      </c>
-      <c r="F13" s="56" t="s">
+      <c r="E14" s="51">
+        <v>70</v>
+      </c>
+      <c r="F14" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G14" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H14" s="40" t="s">
         <v>417</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I14" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="57" t="s">
+      <c r="J14" s="52" t="s">
         <v>356</v>
       </c>
-      <c r="K13" s="42" t="s">
+      <c r="K14" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="L13" s="42" t="s">
+      <c r="L14" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="M13" s="58" t="s">
+      <c r="M14" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="42"/>
-      <c r="P13" s="42"/>
-    </row>
-    <row r="14" spans="1:16" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14">
-        <v>70</v>
-      </c>
-      <c r="E14">
-        <v>70</v>
-      </c>
-      <c r="F14" t="s">
-        <v>277</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="54" t="s">
-        <v>359</v>
-      </c>
-      <c r="K14" s="46" t="s">
-        <v>385</v>
-      </c>
-      <c r="L14" s="46" t="s">
-        <v>385</v>
-      </c>
-      <c r="M14" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="47"/>
-      <c r="P14" s="19"/>
+      <c r="N14" s="39"/>
+      <c r="P14" s="39"/>
     </row>
     <row r="15" spans="1:16" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15">
+        <v>70</v>
+      </c>
+      <c r="E15">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>277</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="K15" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="L15" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="44"/>
+      <c r="P15" s="19"/>
+    </row>
+    <row r="16" spans="1:16" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B16" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C16" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>80</v>
       </c>
-      <c r="E15">
-        <v>70</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E16">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G16" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H16" s="19" t="s">
         <v>187</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="J15" s="52" t="s">
-        <v>356</v>
-      </c>
-      <c r="K15" s="43" t="s">
-        <v>422</v>
-      </c>
-      <c r="L15" s="43" t="s">
-        <v>422</v>
-      </c>
-      <c r="M15" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="47"/>
-      <c r="P15" s="19"/>
-    </row>
-    <row r="16" spans="1:16" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
-        <v>389</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16">
-        <v>70</v>
-      </c>
-      <c r="E16">
-        <v>70</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>161</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="J16" s="52" t="s">
-        <v>360</v>
-      </c>
-      <c r="K16" s="46" t="s">
-        <v>411</v>
-      </c>
-      <c r="L16" s="46" t="s">
-        <v>381</v>
-      </c>
-      <c r="M16" s="38" t="s">
+      <c r="J16" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="M16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="47" t="s">
-        <v>410</v>
-      </c>
+      <c r="N16" s="44"/>
       <c r="P16" s="19"/>
     </row>
-    <row r="17" spans="1:16" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
-        <v>388</v>
+    <row r="17" spans="1:16" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="38" t="s">
+        <v>389</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>321</v>
+        <v>159</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="D17">
         <v>70</v>
@@ -5728,128 +5729,130 @@
       <c r="E17">
         <v>70</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>387</v>
+      <c r="G17" s="19" t="s">
+        <v>312</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="J17" s="52" t="s">
+      <c r="J17" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="K17" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="L17" s="43" t="s">
+        <v>381</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="P17" s="19"/>
+    </row>
+    <row r="18" spans="1:16" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="D18">
+        <v>70</v>
+      </c>
+      <c r="E18">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="J18" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="K17" s="48" t="s">
+      <c r="K18" s="45" t="s">
         <v>383</v>
       </c>
-      <c r="L17" s="48" t="s">
+      <c r="L18" s="45" t="s">
         <v>383</v>
       </c>
-      <c r="M17" s="36" t="s">
+      <c r="M18" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N17" s="47"/>
-      <c r="P17" s="19"/>
-    </row>
-    <row r="18" spans="1:16" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
+      <c r="N18" s="44"/>
+      <c r="P18" s="19"/>
+    </row>
+    <row r="19" spans="1:16" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B19" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C19" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>85</v>
       </c>
-      <c r="E18">
-        <v>70</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="E19">
+        <v>70</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G19" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H19" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I19" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="J18" s="52" t="s">
+      <c r="J19" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="K18" s="46" t="s">
+      <c r="K19" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="L18" s="46" t="s">
+      <c r="L19" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="M18" s="36" t="s">
+      <c r="M19" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="47"/>
-      <c r="P18" s="19"/>
-    </row>
-    <row r="19" spans="1:16" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="N19" s="44"/>
+      <c r="P19" s="19"/>
+    </row>
+    <row r="20" spans="1:16" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B20" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C20" s="19" t="s">
         <v>373</v>
-      </c>
-      <c r="D19">
-        <v>60</v>
-      </c>
-      <c r="E19">
-        <v>70</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="J19" s="52" t="s">
-        <v>356</v>
-      </c>
-      <c r="K19" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="L19" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="M19" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="47"/>
-      <c r="P19" s="19"/>
-    </row>
-    <row r="20" spans="1:16" ht="202.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
-        <v>382</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>334</v>
       </c>
       <c r="D20">
         <v>60</v>
@@ -5857,130 +5860,173 @@
       <c r="E20">
         <v>70</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="44"/>
+      <c r="P20" s="19"/>
+    </row>
+    <row r="21" spans="1:16" ht="202.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D21">
+        <v>60</v>
+      </c>
+      <c r="E21">
+        <v>70</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H21" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I21" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="J20" s="52" t="s">
+      <c r="J21" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="K20" s="46" t="s">
+      <c r="K21" s="43" t="s">
         <v>411</v>
       </c>
-      <c r="L20" s="46" t="s">
+      <c r="L21" s="43" t="s">
         <v>381</v>
       </c>
-      <c r="M20" s="36" t="s">
+      <c r="M21" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N20" s="47" t="s">
+      <c r="N21" s="44" t="s">
         <v>410</v>
       </c>
-      <c r="P20" s="19"/>
-    </row>
-    <row r="21" spans="1:16" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="P21" s="19"/>
+    </row>
+    <row r="22" spans="1:16" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B22" s="19" t="s">
         <v>374</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="D21">
-        <v>58</v>
-      </c>
-      <c r="E21">
-        <v>90</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J21" s="52" t="s">
-        <v>366</v>
-      </c>
-      <c r="K21" s="46" t="s">
-        <v>412</v>
-      </c>
-      <c r="L21" s="46" t="s">
-        <v>413</v>
-      </c>
-      <c r="M21" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="47" t="s">
-        <v>410</v>
-      </c>
-      <c r="O21" s="40" t="s">
-        <v>365</v>
-      </c>
-      <c r="P21" s="19"/>
-    </row>
-    <row r="22" spans="1:16" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
-        <v>379</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>434</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>374</v>
       </c>
       <c r="D22">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E22">
         <v>90</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="47" t="s">
+        <v>366</v>
+      </c>
+      <c r="K22" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="L22" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="M22" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="O22" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="P22" s="19"/>
+    </row>
+    <row r="23" spans="1:16" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="D23">
+        <v>70</v>
+      </c>
+      <c r="E23">
+        <v>90</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H23" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I23" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="J22" s="52" t="s">
+      <c r="J23" s="47" t="s">
         <v>366</v>
       </c>
-      <c r="K22" s="46" t="s">
+      <c r="K23" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="L22" s="46" t="s">
+      <c r="L23" s="43" t="s">
         <v>411</v>
       </c>
-      <c r="M22" s="36" t="s">
+      <c r="M23" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="N22" s="47" t="s">
+      <c r="N23" s="44" t="s">
         <v>410</v>
       </c>
-      <c r="P22" s="19"/>
+      <c r="P23" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="J1:N22" xr:uid="{4804751B-0D68-40D1-A968-20B3F0CBE54D}"/>
+  <autoFilter ref="J1:N23" xr:uid="{4804751B-0D68-40D1-A968-20B3F0CBE54D}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6029,7 +6075,7 @@
       <c r="F1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="41" t="s">
         <v>404</v>
       </c>
       <c r="H1" s="33" t="s">
@@ -6046,7 +6092,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="159.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="38" t="s">
         <v>401</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -6064,13 +6110,13 @@
       <c r="F2" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="38" t="s">
         <v>381</v>
       </c>
       <c r="J2" s="19" t="s">
@@ -6081,7 +6127,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="38" t="s">
         <v>400</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -6096,16 +6142,16 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="38" t="s">
         <v>381</v>
       </c>
       <c r="J3" s="19" t="s">
@@ -6134,7 +6180,7 @@
       <c r="F4" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="G4" s="41"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19" t="s">
@@ -6163,7 +6209,7 @@
       <c r="F5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="41"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19" t="s">
@@ -6225,7 +6271,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="38" t="s">
         <v>398</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -6244,10 +6290,10 @@
         <v>397</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="38" t="s">
         <v>381</v>
       </c>
       <c r="J8" s="19" t="s">
@@ -6258,7 +6304,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="38" t="s">
         <v>396</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -6276,13 +6322,13 @@
       <c r="F9" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="38" t="s">
         <v>362</v>
       </c>
       <c r="J9" s="19" t="s">
@@ -6293,7 +6339,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="78" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="38" t="s">
         <v>395</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -6311,13 +6357,13 @@
       <c r="F10" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="38" t="s">
         <v>381</v>
       </c>
       <c r="J10" s="19" t="s">
@@ -6328,7 +6374,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="78" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="38" t="s">
         <v>394</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -6346,13 +6392,13 @@
       <c r="F11" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="38" t="s">
         <v>381</v>
       </c>
       <c r="J11" s="19" t="s">
@@ -6474,7 +6520,7 @@
       <c r="F15" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="G15" s="41"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="19" t="s">
@@ -6503,7 +6549,7 @@
       <c r="F16" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="G16" s="41"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19" t="s">
@@ -6532,7 +6578,7 @@
       <c r="F17" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="G17" s="41"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19" t="s">
@@ -6561,13 +6607,13 @@
       <c r="F18" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="H18" s="41" t="s">
+      <c r="H18" s="38" t="s">
         <v>393</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="38" t="s">
         <v>362</v>
       </c>
       <c r="J18" s="19" t="s">
@@ -6596,11 +6642,11 @@
       <c r="F19" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41" t="s">
+      <c r="G19" s="38"/>
+      <c r="H19" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="38" t="s">
         <v>381</v>
       </c>
       <c r="J19" s="19" t="s">
@@ -6629,7 +6675,7 @@
       <c r="F20" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="G20" s="41"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19" t="s">
@@ -6658,7 +6704,7 @@
       <c r="F21" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="G21" s="41"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19" t="s">
@@ -6711,13 +6757,13 @@
       <c r="E23" t="s">
         <v>277</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42" t="s">
+      <c r="G23" s="40"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39" t="s">
         <v>300</v>
       </c>
       <c r="K23" s="19" t="s">
@@ -6740,13 +6786,13 @@
       <c r="E24" t="s">
         <v>277</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42" t="s">
+      <c r="G24" s="40"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39" t="s">
         <v>82</v>
       </c>
       <c r="K24" s="19" t="s">
@@ -6772,11 +6818,11 @@
       <c r="F25" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41" t="s">
+      <c r="G25" s="38"/>
+      <c r="H25" s="38" t="s">
         <v>392</v>
       </c>
-      <c r="I25" s="41" t="s">
+      <c r="I25" s="38" t="s">
         <v>362</v>
       </c>
       <c r="J25" s="19" t="s">
@@ -6832,11 +6878,11 @@
       <c r="F27" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41" t="s">
+      <c r="G27" s="38"/>
+      <c r="H27" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="I27" s="41" t="s">
+      <c r="I27" s="38" t="s">
         <v>362</v>
       </c>
       <c r="J27" s="19" t="s">
@@ -6874,7 +6920,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="156" x14ac:dyDescent="0.3">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="38" t="s">
         <v>389</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -6892,11 +6938,11 @@
       <c r="F29" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41" t="s">
+      <c r="G29" s="38"/>
+      <c r="H29" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="I29" s="41" t="s">
+      <c r="I29" s="38" t="s">
         <v>381</v>
       </c>
       <c r="J29" s="19" t="s">
@@ -6925,7 +6971,7 @@
       <c r="F30" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G30" s="41"/>
+      <c r="G30" s="38"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19" t="s">
@@ -6954,7 +7000,7 @@
       <c r="F31" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="G31" s="41"/>
+      <c r="G31" s="38"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19" t="s">
@@ -6983,7 +7029,7 @@
       <c r="F32" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="G32" s="41"/>
+      <c r="G32" s="38"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19" t="s">
@@ -7012,7 +7058,7 @@
       <c r="F33" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="G33" s="41"/>
+      <c r="G33" s="38"/>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="19" t="s">
@@ -7023,7 +7069,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="78" x14ac:dyDescent="0.3">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="38" t="s">
         <v>388</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -7056,7 +7102,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="38" t="s">
         <v>386</v>
       </c>
       <c r="B35" s="19" t="s">
@@ -7071,11 +7117,11 @@
       <c r="E35" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="F35" s="41" t="s">
+      <c r="F35" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41" t="s">
+      <c r="G35" s="38"/>
+      <c r="H35" s="38" t="s">
         <v>383</v>
       </c>
       <c r="I35" s="19" t="s">
@@ -7107,8 +7153,8 @@
       <c r="F36" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41" t="s">
+      <c r="G36" s="38"/>
+      <c r="H36" s="38" t="s">
         <v>176</v>
       </c>
       <c r="I36" s="19" t="s">
@@ -7122,7 +7168,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="202.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="38" t="s">
         <v>382</v>
       </c>
       <c r="B37" s="19" t="s">
@@ -7140,11 +7186,11 @@
       <c r="F37" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41" t="s">
+      <c r="G37" s="38"/>
+      <c r="H37" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="I37" s="41" t="s">
+      <c r="I37" s="38" t="s">
         <v>381</v>
       </c>
       <c r="J37" s="19" t="s">
@@ -7173,11 +7219,11 @@
       <c r="F38" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41" t="s">
+      <c r="G38" s="38"/>
+      <c r="H38" s="38" t="s">
         <v>380</v>
       </c>
-      <c r="I38" s="41" t="s">
+      <c r="I38" s="38" t="s">
         <v>377</v>
       </c>
       <c r="J38" s="19" t="s">
@@ -7188,7 +7234,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="38" t="s">
         <v>379</v>
       </c>
       <c r="B39" s="19" t="s">
@@ -7206,11 +7252,11 @@
       <c r="F39" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41" t="s">
+      <c r="G39" s="38"/>
+      <c r="H39" s="38" t="s">
         <v>378</v>
       </c>
-      <c r="I39" s="41" t="s">
+      <c r="I39" s="38" t="s">
         <v>377</v>
       </c>
       <c r="J39" s="19" t="s">
@@ -8327,6 +8373,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FED123832FD0488CFCE1AA10E1DCD4" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="41a705e68a8aeb9b58d52370ca01447e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a45b7c79-9df6-4e54-8c6e-a05b6926a077" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba608db981251bffcca843424efdcbba" ns3:_="">
     <xsd:import namespace="a45b7c79-9df6-4e54-8c6e-a05b6926a077"/>
@@ -8510,15 +8565,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2737EBF5-6B84-4C51-A2EC-BF7D423E712E}">
   <ds:schemaRefs>
@@ -8536,6 +8582,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949C4874-4D5A-4FE9-8546-A8417F100372}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F71E18D2-388C-40B5-9487-62F8D977B285}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8551,12 +8605,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949C4874-4D5A-4FE9-8546-A8417F100372}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Vaccine_profile_assumptions.xlsx
+++ b/data/Vaccine_profile_assumptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaelin.kim\OneDrive - International Vaccine Institute\Documents\GitHub\vaccine_amr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C594B0C-FD80-46B0-8A88-4655837D0D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069E2F46-68EB-4619-9EC9-D9057BC1BCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{E3505429-E9FF-3944-B32E-F1BA65C67D7B}"/>
   </bookViews>
@@ -2757,7 +2757,7 @@
     <t>All except Diarrhoea</t>
   </si>
   <si>
-    <t>E. coli - all</t>
+    <t>E. coli - non-diarrhogenic</t>
   </si>
 </sst>
 </file>
@@ -2922,7 +2922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3066,9 +3066,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4982,9 +4979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4804751B-0D68-40D1-A968-20B3F0CBE54D}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5323,7 +5320,7 @@
       <c r="A8" s="38" t="s">
         <v>435</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="19" t="s">
         <v>438</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -5354,7 +5351,7 @@
         <v>411</v>
       </c>
       <c r="L8" s="43" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="M8" s="35" t="s">
         <v>24</v>

--- a/data/Vaccine_profile_assumptions.xlsx
+++ b/data/Vaccine_profile_assumptions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaelin.kim\OneDrive - International Vaccine Institute\Documents\GitHub\vaccine_amr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069E2F46-68EB-4619-9EC9-D9057BC1BCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78713B88-241E-49D5-AFB4-0CFA3A2E1862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{E3505429-E9FF-3944-B32E-F1BA65C67D7B}"/>
   </bookViews>
@@ -2531,12 +2531,6 @@
     <t>Extra notes</t>
   </si>
   <si>
-    <t>VE 59% (1st dose), 92% (2nd dose), 93% (3rd dose) https://pubmed.ncbi.nlm.nih.gov/22583474/</t>
-  </si>
-  <si>
-    <t>29% for 1 dose, 58% for 2 doses and 58% for 3-doses</t>
-  </si>
-  <si>
     <t>BSI, CNS infections, Cardiac infections, LRI</t>
   </si>
   <si>
@@ -2758,6 +2752,12 @@
   </si>
   <si>
     <t>E. coli - non-diarrhogenic</t>
+  </si>
+  <si>
+    <t>VE 59% (1st dose), 92% (2nd dose), 93% (3rd dose) (69 for LRI)</t>
+  </si>
+  <si>
+    <t>29% for 1 dose, 58% for 2 doses and 58% for 3-doses (27 for LRI)</t>
   </si>
 </sst>
 </file>
@@ -2874,7 +2874,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2896,6 +2896,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2922,7 +2928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3017,9 +3023,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3033,9 +3036,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3057,15 +3057,25 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4979,574 +4989,573 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4804751B-0D68-40D1-A968-20B3F0CBE54D}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.69921875" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="7" max="7" width="32.69921875" customWidth="1"/>
-    <col min="8" max="9" width="21.5" customWidth="1"/>
-    <col min="10" max="10" width="21.5" style="50" customWidth="1"/>
+    <col min="1" max="1" width="43.69921875" style="51" customWidth="1"/>
+    <col min="2" max="2" width="29" style="51" customWidth="1"/>
+    <col min="3" max="3" width="22" style="51" customWidth="1"/>
+    <col min="4" max="4" width="11" style="51"/>
+    <col min="5" max="5" width="11" style="51" customWidth="1"/>
+    <col min="6" max="6" width="11" style="51"/>
+    <col min="7" max="7" width="32.69921875" style="51" customWidth="1"/>
+    <col min="8" max="9" width="21.5" style="51" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="47" customWidth="1"/>
     <col min="11" max="11" width="18.59765625" style="36" customWidth="1"/>
     <col min="12" max="12" width="20.69921875" style="36" customWidth="1"/>
     <col min="13" max="13" width="21.296875" style="36" customWidth="1"/>
-    <col min="14" max="14" width="18.296875" style="19" customWidth="1"/>
-    <col min="15" max="15" width="13.59765625" customWidth="1"/>
-    <col min="16" max="16" width="14.09765625" customWidth="1"/>
+    <col min="14" max="14" width="18.296875" style="55" customWidth="1"/>
+    <col min="15" max="15" width="13.59765625" style="51" customWidth="1"/>
+    <col min="16" max="16" width="14.09765625" style="51" customWidth="1"/>
+    <col min="17" max="16384" width="11" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="33" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:16" s="48" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>406</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="44" t="s">
         <v>354</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M1" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="N1" s="42" t="s">
-        <v>407</v>
-      </c>
-      <c r="O1" s="33" t="s">
+      <c r="N1" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="O1" s="48" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="156" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
-        <v>401</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>424</v>
+      </c>
+      <c r="C2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
-        <v>70</v>
-      </c>
-      <c r="E2">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" s="51">
+        <v>70</v>
+      </c>
+      <c r="E2" s="51">
+        <v>70</v>
+      </c>
+      <c r="F2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="J2" s="47" t="s">
+      <c r="I2" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="J2" s="45" t="s">
         <v>355</v>
       </c>
-      <c r="K2" s="43" t="s">
-        <v>411</v>
-      </c>
-      <c r="L2" s="43" t="s">
-        <v>381</v>
+      <c r="K2" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>379</v>
       </c>
       <c r="M2" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="N2" s="44" t="s">
-        <v>408</v>
-      </c>
-      <c r="P2" s="19"/>
+      <c r="N2" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="P2" s="50"/>
     </row>
     <row r="3" spans="1:16" ht="156" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
-        <v>400</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="A3" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="C3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
-        <v>70</v>
-      </c>
-      <c r="E3">
-        <v>70</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3" s="51">
+        <v>70</v>
+      </c>
+      <c r="E3" s="51">
+        <v>70</v>
+      </c>
+      <c r="F3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="49" t="s">
+        <v>397</v>
+      </c>
+      <c r="H3" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="J3" s="47" t="s">
+      <c r="I3" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="J3" s="45" t="s">
         <v>356</v>
       </c>
-      <c r="K3" s="43" t="s">
-        <v>411</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>381</v>
-      </c>
-      <c r="M3" s="37" t="s">
+      <c r="K3" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="M3" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="44" t="s">
-        <v>408</v>
-      </c>
-      <c r="P3" s="19"/>
+      <c r="N3" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="P3" s="50"/>
     </row>
     <row r="4" spans="1:16" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>398</v>
-      </c>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D4">
-        <v>70</v>
-      </c>
-      <c r="E4">
-        <v>70</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" s="51">
+        <v>70</v>
+      </c>
+      <c r="E4" s="51">
+        <v>70</v>
+      </c>
+      <c r="F4" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="H4" s="19" t="s">
+      <c r="G4" s="53" t="s">
+        <v>395</v>
+      </c>
+      <c r="H4" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="J4" s="47" t="s">
+      <c r="I4" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="J4" s="45" t="s">
         <v>356</v>
       </c>
-      <c r="K4" s="43" t="s">
-        <v>411</v>
-      </c>
-      <c r="L4" s="43" t="s">
-        <v>381</v>
-      </c>
-      <c r="M4" s="37" t="s">
+      <c r="K4" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="M4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="44" t="s">
-        <v>409</v>
-      </c>
-      <c r="P4" s="19"/>
+      <c r="N4" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="P4" s="50"/>
     </row>
     <row r="5" spans="1:16" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>396</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="D5">
+      <c r="A5" s="49" t="s">
+        <v>394</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>421</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" s="51">
         <v>60</v>
       </c>
-      <c r="E5">
-        <v>70</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="51">
+        <v>70</v>
+      </c>
+      <c r="F5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="41" t="s">
         <v>176</v>
       </c>
       <c r="M5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="44"/>
-      <c r="P5" s="19"/>
+      <c r="P5" s="50"/>
     </row>
     <row r="6" spans="1:16" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="D6">
-        <v>70</v>
-      </c>
-      <c r="E6">
-        <v>70</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="A6" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" s="51">
+        <v>70</v>
+      </c>
+      <c r="E6" s="51">
+        <v>70</v>
+      </c>
+      <c r="F6" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="J6" s="48" t="s">
+      <c r="I6" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="J6" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="K6" s="43" t="s">
-        <v>411</v>
-      </c>
-      <c r="L6" s="43" t="s">
-        <v>381</v>
+      <c r="K6" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>379</v>
       </c>
       <c r="M6" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="N6" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="P6" s="19"/>
+      <c r="N6" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="P6" s="50"/>
     </row>
     <row r="7" spans="1:16" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>394</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="D7">
-        <v>70</v>
-      </c>
-      <c r="E7">
-        <v>70</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="A7" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="D7" s="51">
+        <v>70</v>
+      </c>
+      <c r="E7" s="51">
+        <v>70</v>
+      </c>
+      <c r="F7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="50" t="s">
         <v>271</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="J7" s="48" t="s">
+      <c r="I7" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="J7" s="46" t="s">
         <v>358</v>
       </c>
-      <c r="K7" s="43" t="s">
-        <v>411</v>
-      </c>
-      <c r="L7" s="43" t="s">
-        <v>381</v>
+      <c r="K7" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>379</v>
       </c>
       <c r="M7" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="N7" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="P7" s="19"/>
+      <c r="N7" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="P7" s="50"/>
     </row>
     <row r="8" spans="1:16" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="D8" s="51">
+        <v>70</v>
+      </c>
+      <c r="E8" s="51">
+        <v>70</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>434</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="J8" s="46" t="s">
         <v>435</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="D8">
-        <v>70</v>
-      </c>
-      <c r="E8">
-        <v>70</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="J8" s="48" t="s">
-        <v>437</v>
-      </c>
-      <c r="K8" s="43" t="s">
-        <v>411</v>
-      </c>
-      <c r="L8" s="43" t="s">
-        <v>381</v>
+      <c r="K8" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>379</v>
       </c>
       <c r="M8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="P8" s="19"/>
+      <c r="N8" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="P8" s="50"/>
     </row>
     <row r="9" spans="1:16" ht="78" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="50" t="s">
         <v>351</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="D9">
-        <v>70</v>
-      </c>
-      <c r="E9">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B9" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>373</v>
+      </c>
+      <c r="D9" s="51">
+        <v>70</v>
+      </c>
+      <c r="E9" s="51">
+        <v>70</v>
+      </c>
+      <c r="F9" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="47" t="s">
+      <c r="J9" s="45" t="s">
         <v>356</v>
       </c>
-      <c r="K9" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="L9" s="45" t="s">
-        <v>380</v>
+      <c r="K9" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>378</v>
       </c>
       <c r="M9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="44"/>
-      <c r="P9" s="19"/>
-    </row>
-    <row r="10" spans="1:16" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="P9" s="50"/>
+    </row>
+    <row r="10" spans="1:16" ht="78" x14ac:dyDescent="0.3">
+      <c r="A10" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>366</v>
+      </c>
+      <c r="D10" s="51">
         <v>93</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="51">
         <v>90</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="47" t="s">
+      <c r="J10" s="45" t="s">
         <v>356</v>
       </c>
-      <c r="K10" s="45" t="s">
-        <v>412</v>
-      </c>
-      <c r="L10" s="45" t="s">
-        <v>412</v>
+      <c r="K10" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>410</v>
       </c>
       <c r="M10" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="44"/>
-      <c r="O10" s="35" t="s">
-        <v>364</v>
-      </c>
-      <c r="P10" s="19"/>
+      <c r="O10" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="P10" s="50"/>
     </row>
     <row r="11" spans="1:16" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="D11">
-        <v>70</v>
-      </c>
-      <c r="E11">
-        <v>70</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="B11" s="50" t="s">
+        <v>428</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="D11" s="51">
+        <v>70</v>
+      </c>
+      <c r="E11" s="51">
+        <v>70</v>
+      </c>
+      <c r="F11" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="J11" s="48" t="s">
+      <c r="I11" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="J11" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="K11" s="43" t="s">
-        <v>393</v>
-      </c>
-      <c r="L11" s="43" t="s">
-        <v>393</v>
+      <c r="K11" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="L11" s="41" t="s">
+        <v>391</v>
       </c>
       <c r="M11" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="44"/>
-      <c r="P11" s="19"/>
+      <c r="P11" s="50"/>
     </row>
     <row r="12" spans="1:16" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="D12">
-        <v>70</v>
-      </c>
-      <c r="E12">
-        <v>70</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="B12" s="50" t="s">
+        <v>429</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="D12" s="51">
+        <v>70</v>
+      </c>
+      <c r="E12" s="51">
+        <v>70</v>
+      </c>
+      <c r="F12" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="J12" s="47" t="s">
+      <c r="I12" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="J12" s="45" t="s">
         <v>356</v>
       </c>
-      <c r="K12" s="43" t="s">
-        <v>411</v>
-      </c>
-      <c r="L12" s="43" t="s">
-        <v>381</v>
+      <c r="K12" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="L12" s="41" t="s">
+        <v>379</v>
       </c>
       <c r="M12" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="44" t="s">
-        <v>408</v>
-      </c>
-      <c r="P12" s="19"/>
+      <c r="N12" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="P12" s="50"/>
     </row>
     <row r="13" spans="1:16" ht="78" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
-        <v>414</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>432</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>370</v>
+      <c r="A13" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>368</v>
       </c>
       <c r="D13" s="51">
         <v>50</v>
@@ -5557,39 +5566,38 @@
       <c r="F13" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="49" t="s">
+        <v>414</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="K13" s="42" t="s">
         <v>416</v>
       </c>
-      <c r="I13" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="J13" s="52" t="s">
-        <v>356</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>418</v>
-      </c>
-      <c r="L13" s="39" t="s">
-        <v>418</v>
-      </c>
-      <c r="M13" s="53" t="s">
+      <c r="L13" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="M13" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="N13" s="39"/>
-      <c r="P13" s="39"/>
+      <c r="P13" s="50"/>
     </row>
     <row r="14" spans="1:16" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
-        <v>415</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>433</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>370</v>
+      <c r="A14" s="49" t="s">
+        <v>413</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>368</v>
       </c>
       <c r="D14" s="51">
         <v>80</v>
@@ -5600,427 +5608,421 @@
       <c r="F14" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="K14" s="42" t="s">
         <v>417</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="L14" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="50"/>
+    </row>
+    <row r="15" spans="1:16" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="51">
+        <v>70</v>
+      </c>
+      <c r="E15" s="51">
+        <v>70</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="I15" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="52" t="s">
-        <v>356</v>
-      </c>
-      <c r="K14" s="39" t="s">
-        <v>419</v>
-      </c>
-      <c r="L14" s="39" t="s">
-        <v>419</v>
-      </c>
-      <c r="M14" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="39"/>
-      <c r="P14" s="39"/>
-    </row>
-    <row r="15" spans="1:16" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15">
-        <v>70</v>
-      </c>
-      <c r="E15">
-        <v>70</v>
-      </c>
-      <c r="F15" t="s">
-        <v>277</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="49" t="s">
+      <c r="J15" s="47" t="s">
         <v>359</v>
       </c>
-      <c r="K15" s="43" t="s">
-        <v>385</v>
-      </c>
-      <c r="L15" s="43" t="s">
-        <v>385</v>
+      <c r="K15" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>383</v>
       </c>
       <c r="M15" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="44"/>
-      <c r="P15" s="19"/>
+      <c r="P15" s="50"/>
     </row>
     <row r="16" spans="1:16" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="D16">
+      <c r="A16" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="D16" s="51">
         <v>80</v>
       </c>
-      <c r="E16">
-        <v>70</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" s="51">
+        <v>70</v>
+      </c>
+      <c r="F16" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="J16" s="47" t="s">
+      <c r="I16" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="J16" s="45" t="s">
         <v>356</v>
       </c>
-      <c r="K16" s="40" t="s">
-        <v>422</v>
-      </c>
-      <c r="L16" s="40" t="s">
-        <v>422</v>
+      <c r="K16" s="41" t="s">
+        <v>420</v>
+      </c>
+      <c r="L16" s="41" t="s">
+        <v>420</v>
       </c>
       <c r="M16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="44"/>
-      <c r="P16" s="19"/>
+      <c r="P16" s="50"/>
     </row>
     <row r="17" spans="1:16" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="49" t="s">
+        <v>387</v>
+      </c>
+      <c r="B17" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="D17">
-        <v>70</v>
-      </c>
-      <c r="E17">
-        <v>70</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="D17" s="51">
+        <v>70</v>
+      </c>
+      <c r="E17" s="51">
+        <v>70</v>
+      </c>
+      <c r="F17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="50" t="s">
         <v>312</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="J17" s="47" t="s">
+      <c r="I17" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="J17" s="45" t="s">
         <v>360</v>
       </c>
-      <c r="K17" s="43" t="s">
-        <v>411</v>
-      </c>
-      <c r="L17" s="43" t="s">
+      <c r="K17" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="L17" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="P17" s="50"/>
+    </row>
+    <row r="18" spans="1:16" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="D18" s="51">
+        <v>70</v>
+      </c>
+      <c r="E18" s="51">
+        <v>70</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="K18" s="43" t="s">
         <v>381</v>
       </c>
-      <c r="M17" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="P17" s="19"/>
-    </row>
-    <row r="18" spans="1:16" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
-        <v>388</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="D18">
-        <v>70</v>
-      </c>
-      <c r="E18">
-        <v>70</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="J18" s="47" t="s">
-        <v>356</v>
-      </c>
-      <c r="K18" s="45" t="s">
-        <v>383</v>
-      </c>
-      <c r="L18" s="45" t="s">
-        <v>383</v>
+      <c r="L18" s="43" t="s">
+        <v>381</v>
       </c>
       <c r="M18" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="44"/>
-      <c r="P18" s="19"/>
+      <c r="P18" s="50"/>
     </row>
     <row r="19" spans="1:16" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="B19" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="51">
         <v>85</v>
       </c>
-      <c r="E19">
-        <v>70</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="H19" s="19" t="s">
+      <c r="E19" s="51">
+        <v>70</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>383</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="H19" s="50" t="s">
         <v>327</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="J19" s="47" t="s">
+      <c r="J19" s="45" t="s">
         <v>356</v>
       </c>
-      <c r="K19" s="43" t="s">
-        <v>383</v>
-      </c>
-      <c r="L19" s="43" t="s">
-        <v>383</v>
+      <c r="K19" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="L19" s="41" t="s">
+        <v>381</v>
       </c>
       <c r="M19" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N19" s="44"/>
-      <c r="P19" s="19"/>
+      <c r="P19" s="50"/>
     </row>
     <row r="20" spans="1:16" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="50" t="s">
         <v>329</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="50" t="s">
         <v>330</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="50" t="s">
+        <v>371</v>
+      </c>
+      <c r="D20" s="51">
         <v>60</v>
       </c>
-      <c r="E20">
-        <v>70</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E20" s="51">
+        <v>70</v>
+      </c>
+      <c r="F20" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="50" t="s">
         <v>331</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="J20" s="47" t="s">
+      <c r="J20" s="45" t="s">
         <v>356</v>
       </c>
-      <c r="K20" s="43" t="s">
+      <c r="K20" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="L20" s="43" t="s">
+      <c r="L20" s="41" t="s">
         <v>176</v>
       </c>
       <c r="M20" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N20" s="44"/>
-      <c r="P20" s="19"/>
+      <c r="P20" s="50"/>
     </row>
     <row r="21" spans="1:16" ht="202.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="B21" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="51">
         <v>60</v>
       </c>
-      <c r="E21">
-        <v>70</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="51">
+        <v>70</v>
+      </c>
+      <c r="F21" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="50" t="s">
         <v>335</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="50" t="s">
         <v>336</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="J21" s="47" t="s">
+      <c r="I21" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="J21" s="45" t="s">
         <v>356</v>
       </c>
-      <c r="K21" s="43" t="s">
-        <v>411</v>
-      </c>
-      <c r="L21" s="43" t="s">
-        <v>381</v>
+      <c r="K21" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="L21" s="41" t="s">
+        <v>379</v>
       </c>
       <c r="M21" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="44" t="s">
+      <c r="N21" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="P21" s="50"/>
+    </row>
+    <row r="22" spans="1:16" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="D22" s="51">
+        <v>58</v>
+      </c>
+      <c r="E22" s="51">
+        <v>90</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="K22" s="41" t="s">
         <v>410</v>
       </c>
-      <c r="P21" s="19"/>
-    </row>
-    <row r="22" spans="1:16" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="D22">
-        <v>58</v>
-      </c>
-      <c r="E22">
-        <v>90</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J22" s="47" t="s">
-        <v>366</v>
-      </c>
-      <c r="K22" s="43" t="s">
-        <v>412</v>
-      </c>
-      <c r="L22" s="43" t="s">
-        <v>413</v>
+      <c r="L22" s="41" t="s">
+        <v>411</v>
       </c>
       <c r="M22" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="O22" s="35" t="s">
-        <v>365</v>
-      </c>
-      <c r="P22" s="19"/>
+      <c r="N22" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="O22" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="P22" s="50"/>
     </row>
     <row r="23" spans="1:16" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="C23" s="19" t="s">
+      <c r="A23" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>432</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="D23" s="51">
+        <v>70</v>
+      </c>
+      <c r="E23" s="51">
+        <v>90</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>344</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="I23" s="50" t="s">
         <v>374</v>
       </c>
-      <c r="D23">
-        <v>70</v>
-      </c>
-      <c r="E23">
-        <v>90</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="J23" s="47" t="s">
-        <v>366</v>
-      </c>
-      <c r="K23" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="L23" s="43" t="s">
-        <v>411</v>
+      <c r="J23" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="L23" s="41" t="s">
+        <v>409</v>
       </c>
       <c r="M23" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="N23" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="P23" s="19"/>
+      <c r="N23" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="P23" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="J1:N23" xr:uid="{4804751B-0D68-40D1-A968-20B3F0CBE54D}"/>
@@ -6072,14 +6074,14 @@
       <c r="F1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="41" t="s">
-        <v>404</v>
+      <c r="G1" s="40" t="s">
+        <v>402</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J1" s="33" t="s">
         <v>8</v>
@@ -6089,8 +6091,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="159.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
-        <v>401</v>
+      <c r="A2" s="37" t="s">
+        <v>399</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>249</v>
@@ -6107,25 +6109,25 @@
       <c r="F2" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="37" t="s">
         <v>355</v>
       </c>
-      <c r="H2" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>381</v>
+      <c r="H2" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>379</v>
       </c>
       <c r="J2" s="19" t="s">
         <v>251</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
-        <v>400</v>
+      <c r="A3" s="37" t="s">
+        <v>398</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>252</v>
@@ -6139,23 +6141,23 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="G3" s="38" t="s">
+      <c r="F3" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="G3" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="H3" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>381</v>
+      <c r="H3" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>379</v>
       </c>
       <c r="J3" s="19" t="s">
         <v>251</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6177,14 +6179,14 @@
       <c r="F4" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="G4" s="38"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="181.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6206,14 +6208,14 @@
       <c r="F5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="38"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
@@ -6237,7 +6239,7 @@
         <v>38</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
@@ -6264,12 +6266,12 @@
         <v>43</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
-        <v>398</v>
+      <c r="A8" s="37" t="s">
+        <v>396</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>46</v>
@@ -6284,25 +6286,25 @@
         <v>15</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>381</v>
+      <c r="H8" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>379</v>
       </c>
       <c r="J8" s="19" t="s">
         <v>260</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
-        <v>396</v>
+      <c r="A9" s="37" t="s">
+        <v>394</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>262</v>
@@ -6319,13 +6321,13 @@
       <c r="F9" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="37" t="s">
         <v>362</v>
       </c>
       <c r="J9" s="19" t="s">
@@ -6336,8 +6338,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="78" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
-        <v>395</v>
+      <c r="A10" s="37" t="s">
+        <v>393</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>265</v>
@@ -6354,25 +6356,25 @@
       <c r="F10" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="37" t="s">
         <v>355</v>
       </c>
-      <c r="H10" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>381</v>
+      <c r="H10" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>379</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>267</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="78" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
-        <v>394</v>
+      <c r="A11" s="37" t="s">
+        <v>392</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>269</v>
@@ -6389,20 +6391,20 @@
       <c r="F11" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="37" t="s">
         <v>358</v>
       </c>
-      <c r="H11" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>381</v>
+      <c r="H11" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>379</v>
       </c>
       <c r="J11" s="19" t="s">
         <v>271</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
@@ -6426,7 +6428,7 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>362</v>
@@ -6459,7 +6461,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>362</v>
@@ -6495,7 +6497,7 @@
         <v>82</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
@@ -6517,14 +6519,14 @@
       <c r="F15" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="G15" s="38"/>
+      <c r="G15" s="37"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="19" t="s">
         <v>279</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
@@ -6546,7 +6548,7 @@
       <c r="F16" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="G16" s="38"/>
+      <c r="G16" s="37"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19" t="s">
@@ -6575,7 +6577,7 @@
       <c r="F17" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="G17" s="38"/>
+      <c r="G17" s="37"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19" t="s">
@@ -6604,20 +6606,20 @@
       <c r="F18" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="37" t="s">
         <v>355</v>
       </c>
-      <c r="H18" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="I18" s="38" t="s">
+      <c r="H18" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="I18" s="37" t="s">
         <v>362</v>
       </c>
       <c r="J18" s="19" t="s">
         <v>102</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="181.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6639,18 +6641,18 @@
       <c r="F19" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>381</v>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>379</v>
       </c>
       <c r="J19" s="19" t="s">
         <v>290</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="78" x14ac:dyDescent="0.3">
@@ -6672,7 +6674,7 @@
       <c r="F20" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="G20" s="38"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19" t="s">
@@ -6701,7 +6703,7 @@
       <c r="F21" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="G21" s="38"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19" t="s">
@@ -6754,13 +6756,13 @@
       <c r="E23" t="s">
         <v>277</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39" t="s">
+      <c r="G23" s="39"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38" t="s">
         <v>300</v>
       </c>
       <c r="K23" s="19" t="s">
@@ -6783,13 +6785,13 @@
       <c r="E24" t="s">
         <v>277</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="40"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39" t="s">
+      <c r="G24" s="39"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38" t="s">
         <v>82</v>
       </c>
       <c r="K24" s="19" t="s">
@@ -6815,11 +6817,11 @@
       <c r="F25" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38" t="s">
-        <v>392</v>
-      </c>
-      <c r="I25" s="38" t="s">
+      <c r="G25" s="37"/>
+      <c r="H25" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="I25" s="37" t="s">
         <v>362</v>
       </c>
       <c r="J25" s="19" t="s">
@@ -6858,7 +6860,7 @@
     </row>
     <row r="27" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>308</v>
@@ -6875,18 +6877,18 @@
       <c r="F27" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="I27" s="38" t="s">
+      <c r="G27" s="37"/>
+      <c r="H27" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="I27" s="37" t="s">
         <v>362</v>
       </c>
       <c r="J27" s="19" t="s">
         <v>187</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
@@ -6913,12 +6915,12 @@
         <v>64</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="156" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
-        <v>389</v>
+      <c r="A29" s="37" t="s">
+        <v>387</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>159</v>
@@ -6935,18 +6937,18 @@
       <c r="F29" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="I29" s="38" t="s">
-        <v>381</v>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>379</v>
       </c>
       <c r="J29" s="19" t="s">
         <v>161</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="78" x14ac:dyDescent="0.3">
@@ -6968,7 +6970,7 @@
       <c r="F30" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G30" s="38"/>
+      <c r="G30" s="37"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19" t="s">
@@ -6997,14 +6999,14 @@
       <c r="F31" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="G31" s="38"/>
+      <c r="G31" s="37"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19" t="s">
         <v>168</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="78" x14ac:dyDescent="0.3">
@@ -7026,7 +7028,7 @@
       <c r="F32" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="G32" s="38"/>
+      <c r="G32" s="37"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19" t="s">
@@ -7055,7 +7057,7 @@
       <c r="F33" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="G33" s="38"/>
+      <c r="G33" s="37"/>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="19" t="s">
@@ -7066,8 +7068,8 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="78" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
-        <v>388</v>
+      <c r="A34" s="37" t="s">
+        <v>386</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>321</v>
@@ -7082,11 +7084,11 @@
         <v>15</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I34" t="s">
         <v>362</v>
@@ -7095,12 +7097,12 @@
         <v>187</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="s">
-        <v>386</v>
+      <c r="A35" s="37" t="s">
+        <v>384</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>324</v>
@@ -7112,14 +7114,14 @@
         <v>70</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>384</v>
-      </c>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38" t="s">
         <v>383</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37" t="s">
+        <v>381</v>
       </c>
       <c r="I35" s="19" t="s">
         <v>362</v>
@@ -7150,8 +7152,8 @@
       <c r="F36" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38" t="s">
+      <c r="G36" s="37"/>
+      <c r="H36" s="37" t="s">
         <v>176</v>
       </c>
       <c r="I36" s="19" t="s">
@@ -7165,8 +7167,8 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="202.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="38" t="s">
-        <v>382</v>
+      <c r="A37" s="37" t="s">
+        <v>380</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>334</v>
@@ -7183,18 +7185,18 @@
       <c r="F37" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="I37" s="38" t="s">
-        <v>381</v>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="I37" s="37" t="s">
+        <v>379</v>
       </c>
       <c r="J37" s="19" t="s">
         <v>336</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
@@ -7216,12 +7218,12 @@
       <c r="F38" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="I38" s="38" t="s">
-        <v>377</v>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>375</v>
       </c>
       <c r="J38" s="19" t="s">
         <v>76</v>
@@ -7231,8 +7233,8 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="38" t="s">
-        <v>379</v>
+      <c r="A39" s="37" t="s">
+        <v>377</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>342</v>
@@ -7249,18 +7251,18 @@
       <c r="F39" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="I39" s="38" t="s">
-        <v>377</v>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="I39" s="37" t="s">
+        <v>375</v>
       </c>
       <c r="J39" s="19" t="s">
         <v>225</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="78" x14ac:dyDescent="0.3">
@@ -7287,7 +7289,7 @@
         <v>231</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -8370,15 +8372,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000FED123832FD0488CFCE1AA10E1DCD4" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="41a705e68a8aeb9b58d52370ca01447e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a45b7c79-9df6-4e54-8c6e-a05b6926a077" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba608db981251bffcca843424efdcbba" ns3:_="">
     <xsd:import namespace="a45b7c79-9df6-4e54-8c6e-a05b6926a077"/>
@@ -8562,6 +8555,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2737EBF5-6B84-4C51-A2EC-BF7D423E712E}">
   <ds:schemaRefs>
@@ -8579,14 +8581,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949C4874-4D5A-4FE9-8546-A8417F100372}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F71E18D2-388C-40B5-9487-62F8D977B285}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8602,4 +8596,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949C4874-4D5A-4FE9-8546-A8417F100372}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>